--- a/cubeComponents/cubeWheel/interface.xlsx
+++ b/cubeComponents/cubeWheel/interface.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="12420"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27870" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nodeInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="244">
   <si>
     <t xml:space="preserve"> Name (source)</t>
   </si>
@@ -182,9 +182,6 @@
     <t xml:space="preserve"> SerialNumber</t>
   </si>
   <si>
-    <t xml:space="preserve"> Serial number</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Serial Number</t>
   </si>
   <si>
@@ -702,15 +699,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Clear error flags parameter. This has to be set to 85 (decimal) to clear the flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Set Serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Set serial number</t>
   </si>
   <si>
     <t xml:space="preserve"> Set I2C Address</t>
@@ -1090,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1093,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -1269,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -1325,7 +1313,7 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
@@ -1372,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -1428,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
         <v>62</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -1487,13 +1475,13 @@
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -1543,13 +1531,13 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -1593,7 +1581,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1608,13 +1596,13 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
@@ -1661,16 +1649,16 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
@@ -1717,16 +1705,16 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
         <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -1764,13 +1752,13 @@
         <v>130</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1785,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -1841,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
@@ -1894,16 +1882,16 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
@@ -1950,34 +1938,34 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
       </c>
       <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
         <v>84</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>85</v>
       </c>
       <c r="R14" t="s">
         <v>25</v>
@@ -2006,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -2062,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
         <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
       </c>
       <c r="J16" t="s">
         <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -2118,16 +2106,16 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
         <v>90</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -2174,16 +2162,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
         <v>92</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
       </c>
       <c r="J18" t="s">
         <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
@@ -2230,16 +2218,16 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
         <v>94</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
@@ -2277,13 +2265,13 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2295,25 +2283,25 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
         <v>101</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>102</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>103</v>
-      </c>
-      <c r="N20" t="s">
-        <v>104</v>
       </c>
       <c r="O20">
         <v>-10000</v>
@@ -2342,13 +2330,13 @@
         <v>134</v>
       </c>
       <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2360,25 +2348,25 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" t="s">
         <v>102</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>103</v>
-      </c>
-      <c r="N21" t="s">
-        <v>104</v>
       </c>
       <c r="O21">
         <v>-10000</v>
@@ -2407,13 +2395,13 @@
         <v>135</v>
       </c>
       <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2425,22 +2413,22 @@
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" t="s">
         <v>114</v>
-      </c>
-      <c r="M22" t="s">
-        <v>115</v>
       </c>
       <c r="N22" t="s">
         <v>47</v>
@@ -2472,13 +2460,13 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2490,25 +2478,25 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
         <v>97</v>
-      </c>
-      <c r="I23" t="s">
-        <v>98</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
         <v>101</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>102</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>103</v>
-      </c>
-      <c r="N23" t="s">
-        <v>104</v>
       </c>
       <c r="O23">
         <v>-10000</v>
@@ -2546,25 +2534,25 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
         <v>105</v>
-      </c>
-      <c r="I24" t="s">
-        <v>106</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" t="s">
         <v>102</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>103</v>
-      </c>
-      <c r="N24" t="s">
-        <v>104</v>
       </c>
       <c r="O24">
         <v>-10000</v>
@@ -2602,22 +2590,22 @@
         <v>16</v>
       </c>
       <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
         <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
         <v>114</v>
-      </c>
-      <c r="M25" t="s">
-        <v>115</v>
       </c>
       <c r="N25" t="s">
         <v>47</v>
@@ -2649,13 +2637,13 @@
         <v>138</v>
       </c>
       <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -2667,16 +2655,16 @@
         <v>16</v>
       </c>
       <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" t="s">
         <v>122</v>
-      </c>
-      <c r="I26" t="s">
-        <v>123</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
@@ -2723,25 +2711,25 @@
         <v>16</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" t="s">
         <v>102</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>103</v>
-      </c>
-      <c r="N27" t="s">
-        <v>104</v>
       </c>
       <c r="O27">
         <v>-10000</v>
@@ -2770,13 +2758,13 @@
         <v>139</v>
       </c>
       <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
         <v>128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2788,16 +2776,16 @@
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
@@ -2844,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
@@ -2891,13 +2879,13 @@
         <v>140</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2909,16 +2897,16 @@
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
@@ -2965,16 +2953,16 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
@@ -3021,16 +3009,16 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
@@ -3077,16 +3065,16 @@
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L33" t="s">
         <v>25</v>
@@ -3124,13 +3112,13 @@
         <v>141</v>
       </c>
       <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>147</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -3142,16 +3130,16 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
@@ -3198,16 +3186,16 @@
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" t="s">
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
@@ -3254,16 +3242,16 @@
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J36" t="s">
         <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
@@ -3310,16 +3298,16 @@
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
         <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
@@ -3357,13 +3345,13 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>150</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3375,16 +3363,16 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" t="s">
         <v>152</v>
-      </c>
-      <c r="I38" t="s">
-        <v>153</v>
       </c>
       <c r="J38" t="s">
         <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
@@ -3431,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" t="s">
         <v>155</v>
-      </c>
-      <c r="I39" t="s">
-        <v>156</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L39" t="s">
         <v>25</v>
@@ -3487,16 +3475,16 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" t="s">
         <v>158</v>
-      </c>
-      <c r="I40" t="s">
-        <v>159</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
@@ -3543,16 +3531,16 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" t="s">
         <v>161</v>
-      </c>
-      <c r="I41" t="s">
-        <v>162</v>
       </c>
       <c r="J41" t="s">
         <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
@@ -3599,16 +3587,16 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" t="s">
         <v>164</v>
-      </c>
-      <c r="I42" t="s">
-        <v>165</v>
       </c>
       <c r="J42" t="s">
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
@@ -3655,16 +3643,16 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" t="s">
         <v>167</v>
-      </c>
-      <c r="I43" t="s">
-        <v>168</v>
       </c>
       <c r="J43" t="s">
         <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
@@ -3711,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" t="s">
         <v>170</v>
-      </c>
-      <c r="I44" t="s">
-        <v>171</v>
       </c>
       <c r="J44" t="s">
         <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
@@ -3767,16 +3755,16 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" t="s">
         <v>173</v>
-      </c>
-      <c r="I45" t="s">
-        <v>174</v>
       </c>
       <c r="J45" t="s">
         <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
@@ -3816,9 +3804,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3925,7 +3915,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3937,16 +3927,16 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
         <v>177</v>
-      </c>
-      <c r="I2" t="s">
-        <v>178</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -3981,13 +3971,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3999,25 +3989,25 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" t="s">
         <v>183</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O3">
         <v>-10000</v>
@@ -4043,13 +4033,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
         <v>186</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>187</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4061,25 +4051,25 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
         <v>189</v>
-      </c>
-      <c r="I4" t="s">
-        <v>190</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
         <v>191</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>192</v>
       </c>
       <c r="O4">
         <v>-100</v>
@@ -4105,13 +4095,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4123,16 +4113,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" t="s">
         <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>197</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -4167,13 +4157,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>201</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4185,16 +4175,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" t="s">
         <v>202</v>
-      </c>
-      <c r="I6" t="s">
-        <v>203</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -4229,13 +4219,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4247,16 +4237,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
         <v>208</v>
-      </c>
-      <c r="I7" t="s">
-        <v>209</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -4291,13 +4281,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>212</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4309,16 +4299,16 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
@@ -4336,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
         <v>25</v>
@@ -4353,13 +4343,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" t="s">
         <v>215</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4371,16 +4361,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
@@ -4415,13 +4405,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
         <v>219</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>220</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4433,16 +4423,16 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" t="s">
         <v>222</v>
-      </c>
-      <c r="I10" t="s">
-        <v>223</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -4474,37 +4464,37 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
         <v>225</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
         <v>226</v>
       </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -4536,16 +4526,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4557,10 +4547,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
@@ -4598,152 +4588,152 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>24</v>
       </c>
-      <c r="K13" t="s">
-        <v>235</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -4763,49 +4753,40 @@
       <c r="Q15" t="s">
         <v>25</v>
       </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>34</v>
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -4843,22 +4824,22 @@
         <v>25</v>
       </c>
       <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -4896,22 +4877,22 @@
         <v>25</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
@@ -4931,40 +4912,49 @@
       <c r="Q18" t="s">
         <v>25</v>
       </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19">
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
+        <v>147</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
@@ -4984,49 +4974,40 @@
       <c r="Q19" t="s">
         <v>25</v>
       </c>
-      <c r="R19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>35</v>
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
@@ -5064,22 +5045,22 @@
         <v>25</v>
       </c>
       <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
         <v>16</v>
       </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
@@ -5117,22 +5098,22 @@
         <v>25</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
@@ -5152,66 +5133,13 @@
       <c r="Q22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>40</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="R22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>0</v>
       </c>
     </row>
@@ -5256,19 +5184,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5279,13 +5207,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5296,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,13 +5241,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
